--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Apoe-Ldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Apoe-Ldlr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.32133366666666</v>
+        <v>35.42516366666666</v>
       </c>
       <c r="H2">
-        <v>87.964001</v>
+        <v>106.275491</v>
       </c>
       <c r="I2">
-        <v>0.006401919837078288</v>
+        <v>0.00832770193000585</v>
       </c>
       <c r="J2">
-        <v>0.006401919837078288</v>
+        <v>0.008327701930005852</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.021894333333333</v>
+        <v>1.711937666666667</v>
       </c>
       <c r="N2">
-        <v>9.065683</v>
+        <v>5.135813</v>
       </c>
       <c r="O2">
-        <v>0.1464771679819186</v>
+        <v>0.09827532014408574</v>
       </c>
       <c r="P2">
-        <v>0.1464771679819185</v>
+        <v>0.09827532014408574</v>
       </c>
       <c r="Q2">
-        <v>88.60597205307589</v>
+        <v>60.6456720287981</v>
       </c>
       <c r="R2">
-        <v>797.453748477683</v>
+        <v>545.8110482591829</v>
       </c>
       <c r="S2">
-        <v>0.000937735087382493</v>
+        <v>0.0008184075732358457</v>
       </c>
       <c r="T2">
-        <v>0.000937735087382493</v>
+        <v>0.0008184075732358458</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.32133366666666</v>
+        <v>35.42516366666666</v>
       </c>
       <c r="H3">
-        <v>87.964001</v>
+        <v>106.275491</v>
       </c>
       <c r="I3">
-        <v>0.006401919837078288</v>
+        <v>0.00832770193000585</v>
       </c>
       <c r="J3">
-        <v>0.006401919837078288</v>
+        <v>0.008327701930005852</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>17.399086</v>
       </c>
       <c r="O3">
-        <v>0.2811226515149324</v>
+        <v>0.3329367223581701</v>
       </c>
       <c r="P3">
-        <v>0.2811226515149324</v>
+        <v>0.3329367223581701</v>
       </c>
       <c r="Q3">
-        <v>170.0548020336762</v>
+        <v>205.4551564001362</v>
       </c>
       <c r="R3">
-        <v>1530.493218303086</v>
+        <v>1849.096407601226</v>
       </c>
       <c r="S3">
-        <v>0.001799724679385492</v>
+        <v>0.002772597785351955</v>
       </c>
       <c r="T3">
-        <v>0.001799724679385493</v>
+        <v>0.002772597785351955</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.32133366666666</v>
+        <v>35.42516366666666</v>
       </c>
       <c r="H4">
-        <v>87.964001</v>
+        <v>106.275491</v>
       </c>
       <c r="I4">
-        <v>0.006401919837078288</v>
+        <v>0.00832770193000585</v>
       </c>
       <c r="J4">
-        <v>0.006401919837078288</v>
+        <v>0.008327701930005852</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.549851333333333</v>
+        <v>3.605537</v>
       </c>
       <c r="N4">
-        <v>16.649554</v>
+        <v>10.816611</v>
       </c>
       <c r="O4">
-        <v>0.2690122209305161</v>
+        <v>0.2069790915087912</v>
       </c>
       <c r="P4">
-        <v>0.269012220930516</v>
+        <v>0.2069790915087912</v>
       </c>
       <c r="Q4">
-        <v>162.7290427450615</v>
+        <v>127.7267383312223</v>
       </c>
       <c r="R4">
-        <v>1464.561384705554</v>
+        <v>1149.540644981001</v>
       </c>
       <c r="S4">
-        <v>0.001722194673591558</v>
+        <v>0.001723660179828618</v>
       </c>
       <c r="T4">
-        <v>0.001722194673591558</v>
+        <v>0.001723660179828618</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.32133366666666</v>
+        <v>35.42516366666666</v>
       </c>
       <c r="H5">
-        <v>87.964001</v>
+        <v>106.275491</v>
       </c>
       <c r="I5">
-        <v>0.006401919837078288</v>
+        <v>0.00832770193000585</v>
       </c>
       <c r="J5">
-        <v>0.006401919837078288</v>
+        <v>0.008327701930005852</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.259039333333334</v>
+        <v>6.302642666666666</v>
       </c>
       <c r="N5">
-        <v>18.777118</v>
+        <v>18.907928</v>
       </c>
       <c r="O5">
-        <v>0.303387959572633</v>
+        <v>0.3618088659889531</v>
       </c>
       <c r="P5">
-        <v>0.303387959572633</v>
+        <v>0.361808865988953</v>
       </c>
       <c r="Q5">
-        <v>183.5233807254575</v>
+        <v>223.2721479991831</v>
       </c>
       <c r="R5">
-        <v>1651.710426529118</v>
+        <v>2009.449331992648</v>
       </c>
       <c r="S5">
-        <v>0.001942265396718745</v>
+        <v>0.003013036391589433</v>
       </c>
       <c r="T5">
-        <v>0.001942265396718745</v>
+        <v>0.003013036391589433</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>136.573239</v>
       </c>
       <c r="I6">
-        <v>0.009939644832300594</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="J6">
-        <v>0.009939644832300592</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.021894333333333</v>
+        <v>1.711937666666667</v>
       </c>
       <c r="N6">
-        <v>9.065683</v>
+        <v>5.135813</v>
       </c>
       <c r="O6">
-        <v>0.1464771679819186</v>
+        <v>0.09827532014408574</v>
       </c>
       <c r="P6">
-        <v>0.1464771679819185</v>
+        <v>0.09827532014408574</v>
       </c>
       <c r="Q6">
-        <v>137.5699656730264</v>
+        <v>77.93495736758966</v>
       </c>
       <c r="R6">
-        <v>1238.129691057237</v>
+        <v>701.414616308307</v>
       </c>
       <c r="S6">
-        <v>0.001455931025781503</v>
+        <v>0.001051724833705536</v>
       </c>
       <c r="T6">
-        <v>0.001455931025781502</v>
+        <v>0.001051724833705536</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>136.573239</v>
       </c>
       <c r="I7">
-        <v>0.009939644832300594</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="J7">
-        <v>0.009939644832300592</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>17.399086</v>
       </c>
       <c r="O7">
-        <v>0.2811226515149324</v>
+        <v>0.3329367223581701</v>
       </c>
       <c r="P7">
-        <v>0.2811226515149324</v>
+        <v>0.3329367223581701</v>
       </c>
       <c r="Q7">
         <v>264.0277256288393</v>
@@ -883,10 +883,10 @@
         <v>2376.249530659554</v>
       </c>
       <c r="S7">
-        <v>0.002794259310373039</v>
+        <v>0.003563029033568458</v>
       </c>
       <c r="T7">
-        <v>0.002794259310373038</v>
+        <v>0.003563029033568458</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>136.573239</v>
       </c>
       <c r="I8">
-        <v>0.009939644832300594</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="J8">
-        <v>0.009939644832300592</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.549851333333333</v>
+        <v>3.605537</v>
       </c>
       <c r="N8">
-        <v>16.649554</v>
+        <v>10.816611</v>
       </c>
       <c r="O8">
-        <v>0.2690122209305161</v>
+        <v>0.2069790915087912</v>
       </c>
       <c r="P8">
-        <v>0.269012220930516</v>
+        <v>0.2069790915087912</v>
       </c>
       <c r="Q8">
-        <v>252.6537241872673</v>
+        <v>164.139955474781</v>
       </c>
       <c r="R8">
-        <v>2273.883517685406</v>
+        <v>1477.259599273029</v>
       </c>
       <c r="S8">
-        <v>0.00267388593159771</v>
+        <v>0.002215053080248925</v>
       </c>
       <c r="T8">
-        <v>0.002673885931597709</v>
+        <v>0.002215053080248925</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>136.573239</v>
       </c>
       <c r="I9">
-        <v>0.009939644832300594</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="J9">
-        <v>0.009939644832300592</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.259039333333334</v>
+        <v>6.302642666666666</v>
       </c>
       <c r="N9">
-        <v>18.777118</v>
+        <v>18.907928</v>
       </c>
       <c r="O9">
-        <v>0.303387959572633</v>
+        <v>0.3618088659889531</v>
       </c>
       <c r="P9">
-        <v>0.303387959572633</v>
+        <v>0.361808865988953</v>
       </c>
       <c r="Q9">
-        <v>284.9390915939114</v>
+        <v>286.9241077487547</v>
       </c>
       <c r="R9">
-        <v>2564.451824345202</v>
+        <v>2582.316969738792</v>
       </c>
       <c r="S9">
-        <v>0.003015568564548344</v>
+        <v>0.003872013531551138</v>
       </c>
       <c r="T9">
-        <v>0.003015568564548343</v>
+        <v>0.003872013531551138</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>67.02347933333333</v>
+        <v>51.06824600000001</v>
       </c>
       <c r="H10">
-        <v>201.070438</v>
+        <v>153.204738</v>
       </c>
       <c r="I10">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="J10">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.021894333333333</v>
+        <v>1.711937666666667</v>
       </c>
       <c r="N10">
-        <v>9.065683</v>
+        <v>5.135813</v>
       </c>
       <c r="O10">
-        <v>0.1464771679819186</v>
+        <v>0.09827532014408574</v>
       </c>
       <c r="P10">
-        <v>0.1464771679819185</v>
+        <v>0.09827532014408574</v>
       </c>
       <c r="Q10">
-        <v>202.5378723976838</v>
+        <v>87.42565389799934</v>
       </c>
       <c r="R10">
-        <v>1822.840851579154</v>
+        <v>786.8308850819941</v>
       </c>
       <c r="S10">
-        <v>0.002143499643086564</v>
+        <v>0.001179800880287757</v>
       </c>
       <c r="T10">
-        <v>0.002143499643086564</v>
+        <v>0.001179800880287757</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>67.02347933333333</v>
+        <v>51.06824600000001</v>
       </c>
       <c r="H11">
-        <v>201.070438</v>
+        <v>153.204738</v>
       </c>
       <c r="I11">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="J11">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>17.399086</v>
       </c>
       <c r="O11">
-        <v>0.2811226515149324</v>
+        <v>0.3329367223581701</v>
       </c>
       <c r="P11">
-        <v>0.2811226515149324</v>
+        <v>0.3329367223581701</v>
       </c>
       <c r="Q11">
-        <v>388.7157603132964</v>
+        <v>296.1802680077187</v>
       </c>
       <c r="R11">
-        <v>3498.441842819668</v>
+        <v>2665.622412069468</v>
       </c>
       <c r="S11">
-        <v>0.004113858231203587</v>
+        <v>0.003996924533467707</v>
       </c>
       <c r="T11">
-        <v>0.004113858231203587</v>
+        <v>0.003996924533467708</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>67.02347933333333</v>
+        <v>51.06824600000001</v>
       </c>
       <c r="H12">
-        <v>201.070438</v>
+        <v>153.204738</v>
       </c>
       <c r="I12">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="J12">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.549851333333333</v>
+        <v>3.605537</v>
       </c>
       <c r="N12">
-        <v>16.649554</v>
+        <v>10.816611</v>
       </c>
       <c r="O12">
-        <v>0.2690122209305161</v>
+        <v>0.2069790915087912</v>
       </c>
       <c r="P12">
-        <v>0.269012220930516</v>
+        <v>0.2069790915087912</v>
       </c>
       <c r="Q12">
-        <v>371.9703461427391</v>
+        <v>184.128450478102</v>
       </c>
       <c r="R12">
-        <v>3347.733115284652</v>
+        <v>1657.156054302918</v>
       </c>
       <c r="S12">
-        <v>0.0039366380951717</v>
+        <v>0.002484795918295746</v>
       </c>
       <c r="T12">
-        <v>0.0039366380951717</v>
+        <v>0.002484795918295747</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>67.02347933333333</v>
+        <v>51.06824600000001</v>
       </c>
       <c r="H13">
-        <v>201.070438</v>
+        <v>153.204738</v>
       </c>
       <c r="I13">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="J13">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.259039333333334</v>
+        <v>6.302642666666666</v>
       </c>
       <c r="N13">
-        <v>18.777118</v>
+        <v>18.907928</v>
       </c>
       <c r="O13">
-        <v>0.303387959572633</v>
+        <v>0.3618088659889531</v>
       </c>
       <c r="P13">
-        <v>0.303387959572633</v>
+        <v>0.361808865988953</v>
       </c>
       <c r="Q13">
-        <v>419.5025934041871</v>
+        <v>321.8649061514294</v>
       </c>
       <c r="R13">
-        <v>3775.523340637684</v>
+        <v>2896.784155362864</v>
       </c>
       <c r="S13">
-        <v>0.004439681569628488</v>
+        <v>0.004343536281172528</v>
       </c>
       <c r="T13">
-        <v>0.004439681569628488</v>
+        <v>0.004343536281172528</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4438.215250666667</v>
+        <v>4121.876464666667</v>
       </c>
       <c r="H14">
-        <v>13314.645752</v>
+        <v>12365.629394</v>
       </c>
       <c r="I14">
-        <v>0.9690247577915309</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="J14">
-        <v>0.9690247577915307</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.021894333333333</v>
+        <v>1.711937666666667</v>
       </c>
       <c r="N14">
-        <v>9.065683</v>
+        <v>5.135813</v>
       </c>
       <c r="O14">
-        <v>0.1464771679819186</v>
+        <v>0.09827532014408574</v>
       </c>
       <c r="P14">
-        <v>0.1464771679819185</v>
+        <v>0.09827532014408574</v>
       </c>
       <c r="Q14">
-        <v>13411.81751610318</v>
+        <v>7056.395577209702</v>
       </c>
       <c r="R14">
-        <v>120706.3576449286</v>
+        <v>63507.56019488732</v>
       </c>
       <c r="S14">
-        <v>0.141940002225668</v>
+        <v>0.09522538685685661</v>
       </c>
       <c r="T14">
-        <v>0.141940002225668</v>
+        <v>0.09522538685685661</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4438.215250666667</v>
+        <v>4121.876464666667</v>
       </c>
       <c r="H15">
-        <v>13314.645752</v>
+        <v>12365.629394</v>
       </c>
       <c r="I15">
-        <v>0.9690247577915309</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="J15">
-        <v>0.9690247577915307</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>17.399086</v>
       </c>
       <c r="O15">
-        <v>0.2811226515149324</v>
+        <v>0.3329367223581701</v>
       </c>
       <c r="P15">
-        <v>0.2811226515149324</v>
+        <v>0.3329367223581701</v>
       </c>
       <c r="Q15">
-        <v>25740.2962776203</v>
+        <v>23905.62769670377</v>
       </c>
       <c r="R15">
-        <v>231662.6664985827</v>
+        <v>215150.6492703339</v>
       </c>
       <c r="S15">
-        <v>0.2724148092939703</v>
+        <v>0.3226041710057819</v>
       </c>
       <c r="T15">
-        <v>0.2724148092939703</v>
+        <v>0.3226041710057819</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4438.215250666667</v>
+        <v>4121.876464666667</v>
       </c>
       <c r="H16">
-        <v>13314.645752</v>
+        <v>12365.629394</v>
       </c>
       <c r="I16">
-        <v>0.9690247577915309</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="J16">
-        <v>0.9690247577915307</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.549851333333333</v>
+        <v>3.605537</v>
       </c>
       <c r="N16">
-        <v>16.649554</v>
+        <v>10.816611</v>
       </c>
       <c r="O16">
-        <v>0.2690122209305161</v>
+        <v>0.2069790915087912</v>
       </c>
       <c r="P16">
-        <v>0.269012220930516</v>
+        <v>0.2069790915087912</v>
       </c>
       <c r="Q16">
-        <v>24631.43482653274</v>
+        <v>14861.57810278486</v>
       </c>
       <c r="R16">
-        <v>221682.9134387946</v>
+        <v>133754.2029250637</v>
       </c>
       <c r="S16">
-        <v>0.2606795022301551</v>
+        <v>0.2005555823304179</v>
       </c>
       <c r="T16">
-        <v>0.2606795022301551</v>
+        <v>0.2005555823304179</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4438.215250666667</v>
+        <v>4121.876464666667</v>
       </c>
       <c r="H17">
-        <v>13314.645752</v>
+        <v>12365.629394</v>
       </c>
       <c r="I17">
-        <v>0.9690247577915309</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="J17">
-        <v>0.9690247577915307</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.259039333333334</v>
+        <v>6.302642666666666</v>
       </c>
       <c r="N17">
-        <v>18.777118</v>
+        <v>18.907928</v>
       </c>
       <c r="O17">
-        <v>0.303387959572633</v>
+        <v>0.3618088659889531</v>
       </c>
       <c r="P17">
-        <v>0.303387959572633</v>
+        <v>0.361808865988953</v>
       </c>
       <c r="Q17">
-        <v>27778.96382372253</v>
+        <v>25978.71447293729</v>
       </c>
       <c r="R17">
-        <v>250010.6744135028</v>
+        <v>233808.4302564356</v>
       </c>
       <c r="S17">
-        <v>0.2939904440417375</v>
+        <v>0.35058027978464</v>
       </c>
       <c r="T17">
-        <v>0.2939904440417375</v>
+        <v>0.3505802797846399</v>
       </c>
     </row>
   </sheetData>
